--- a/resources/views/excel/KeyTypingAggregationInfo.xlsx
+++ b/resources/views/excel/KeyTypingAggregationInfo.xlsx
@@ -19,13 +19,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
-  <si>
-    <t>頻出ショートカット（アプリケーション）</t>
-    <rPh sb="0" eb="2">
-      <t>ヒンシュツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
   <si>
     <t>09:00～10:00</t>
     <phoneticPr fontId="1"/>
@@ -73,22 +66,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>お客様名： 日本システム開発</t>
-    <rPh sb="1" eb="3">
-      <t>キャクサマ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ニホン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>カイハツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>タイピング速度（回数／分）</t>
     <rPh sb="5" eb="7">
       <t>ソクド</t>
@@ -98,25 +75,6 @@
     </rPh>
     <rPh sb="11" eb="12">
       <t>フン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>辞書登録推薦候補（回数）</t>
-    <rPh sb="0" eb="2">
-      <t>ジショ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>スイセン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>コウホ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カイスウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -140,34 +98,6 @@
     </rPh>
     <rPh sb="9" eb="10">
       <t>ヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>実施期間： 2017年11月14日 ～ 2017年11月17日</t>
-    <rPh sb="0" eb="2">
-      <t>ジッシ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キカン</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>ニチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -212,6 +142,46 @@
     <t>ユーザー名</t>
     <rPh sb="4" eb="5">
       <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>辞書登録候補</t>
+    <rPh sb="0" eb="2">
+      <t>ジショ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウホ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>頻出ショートカット</t>
+    <rPh sb="0" eb="2">
+      <t>ヒンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お客様名：</t>
+    <rPh sb="1" eb="3">
+      <t>キャクサマ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実施期間：</t>
+    <rPh sb="0" eb="2">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キカン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -266,7 +236,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="HGSｺﾞｼｯｸE"/>
+      <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -357,14 +327,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1890,11 +1860,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="57786368"/>
-        <c:axId val="57787904"/>
+        <c:axId val="46821376"/>
+        <c:axId val="46822912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="57786368"/>
+        <c:axId val="46821376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1903,7 +1873,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57787904"/>
+        <c:crossAx val="46822912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1911,7 +1881,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="57787904"/>
+        <c:axId val="46822912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1927,7 +1897,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="57786368"/>
+        <c:crossAx val="46821376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1940,6 +1910,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2297,263 +2268,263 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E5" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E7" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="E5" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="E7" s="4" t="s">
+      <c r="E10" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="9"/>
-      <c r="D11" s="13"/>
+      <c r="D11" s="11"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="9"/>
-      <c r="D12" s="13"/>
+      <c r="D12" s="11"/>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
-      <c r="D13" s="13"/>
+      <c r="D13" s="11"/>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="9"/>
-      <c r="D14" s="13"/>
+      <c r="D14" s="11"/>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="9"/>
-      <c r="D15" s="13"/>
+      <c r="D15" s="11"/>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="9"/>
-      <c r="D16" s="13"/>
+      <c r="D16" s="11"/>
       <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="9"/>
-      <c r="D17" s="13"/>
+      <c r="D17" s="11"/>
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="9"/>
-      <c r="D18" s="13"/>
+      <c r="D18" s="11"/>
       <c r="E18" s="8"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="9"/>
-      <c r="D19" s="13"/>
+      <c r="D19" s="11"/>
       <c r="E19" s="8"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
-      <c r="D20" s="13"/>
+      <c r="D20" s="11"/>
       <c r="E20" s="8"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
-      <c r="D21" s="13"/>
+      <c r="D21" s="11"/>
       <c r="E21" s="8"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="9"/>
-      <c r="D22" s="13"/>
+      <c r="D22" s="11"/>
       <c r="E22" s="8"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="9"/>
-      <c r="D23" s="13"/>
+      <c r="D23" s="11"/>
       <c r="E23" s="8"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="9"/>
-      <c r="D24" s="13"/>
+      <c r="D24" s="11"/>
       <c r="E24" s="8"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="9"/>
-      <c r="D25" s="13"/>
+      <c r="D25" s="11"/>
       <c r="E25" s="8"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="9"/>
-      <c r="D26" s="13"/>
+      <c r="D26" s="11"/>
       <c r="E26" s="8"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="9"/>
-      <c r="D27" s="13"/>
+      <c r="D27" s="11"/>
       <c r="E27" s="8"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="9"/>
-      <c r="D28" s="13"/>
+      <c r="D28" s="11"/>
       <c r="E28" s="8"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="9"/>
-      <c r="D29" s="13"/>
+      <c r="D29" s="11"/>
       <c r="E29" s="8"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="9"/>
-      <c r="D30" s="13"/>
+      <c r="D30" s="11"/>
       <c r="E30" s="8"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="9"/>
-      <c r="D31" s="13"/>
+      <c r="D31" s="11"/>
       <c r="E31" s="8"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="9"/>
-      <c r="D32" s="13"/>
+      <c r="D32" s="11"/>
       <c r="E32" s="8"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="9"/>
-      <c r="D33" s="13"/>
+      <c r="D33" s="11"/>
       <c r="E33" s="8"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="9"/>
-      <c r="D34" s="13"/>
+      <c r="D34" s="11"/>
       <c r="E34" s="8"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="9"/>
-      <c r="D35" s="13"/>
+      <c r="D35" s="11"/>
       <c r="E35" s="8"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="9"/>
-      <c r="D36" s="13"/>
+      <c r="D36" s="11"/>
       <c r="E36" s="8"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="9"/>
-      <c r="D37" s="13"/>
+      <c r="D37" s="11"/>
       <c r="E37" s="8"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="9"/>
-      <c r="D38" s="13"/>
+      <c r="D38" s="11"/>
       <c r="E38" s="8"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="9"/>
-      <c r="D39" s="13"/>
+      <c r="D39" s="11"/>
       <c r="E39" s="8"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="9"/>
-      <c r="D40" s="13"/>
+      <c r="D40" s="11"/>
       <c r="E40" s="8"/>
     </row>
   </sheetData>
@@ -2585,45 +2556,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>14</v>
+      <c r="A1" s="12" t="s">
+        <v>11</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
     </row>
     <row r="2" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
     </row>
     <row r="3" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="D4" s="2"/>
@@ -2631,7 +2602,7 @@
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="D5" s="2"/>
       <c r="I5" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
@@ -2642,7 +2613,7 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="D7" s="2"/>
       <c r="I7" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
@@ -2652,42 +2623,42 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A51" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="F51" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="G51" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="H51" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H51" s="1" t="s">
+      <c r="I51" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I51" s="1" t="s">
+      <c r="J51" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J51" s="1" t="s">
+      <c r="K51" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.15">
